--- a/RESULTS/RESULTS_GREG/Results_Greg.xlsx
+++ b/RESULTS/RESULTS_GREG/Results_Greg.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="21075" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Result2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Method</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Needleman-Wunsch Distance</t>
   </si>
   <si>
-    <t xml:space="preserve">Distance prediction </t>
-  </si>
-  <si>
     <t>Time2</t>
   </si>
   <si>
@@ -56,13 +53,40 @@
   </si>
   <si>
     <t xml:space="preserve">GREG </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 -&gt; 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 -&gt; 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 -&gt; 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 -&gt; 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 -&gt; 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 -&gt; 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 -&gt; 5</t>
+  </si>
+  <si>
+    <t>***This is the output that I received when I ran on my test code with short string of "Alabama"</t>
+  </si>
+  <si>
+    <t>***This is the output the I received when I ran on the Emily D Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,7 +570,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -613,16 +638,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>166686</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>301624</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>157232</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125483</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -640,13 +665,89 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9707561" y="2476500"/>
+          <a:off x="23812" y="4159251"/>
           <a:ext cx="4413251" cy="2443232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466131</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>37262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5659438" y="4191000"/>
+          <a:ext cx="4752381" cy="6704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>521693</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>132667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6096000"/>
+          <a:ext cx="4752381" cy="5466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -729,6 +830,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -763,6 +865,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -938,349 +1041,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="2" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>6.7383399999999996E-2</v>
-      </c>
-      <c r="H2">
-        <f>AVERAGE(E2:G2)</f>
-        <v>6.7383399999999996E-2</v>
+      <c r="E3">
+        <v>3.70259E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.6025599999999998E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.0027100000000003E-2</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(E3:G3)</f>
+        <v>3.7692866666666665E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0.83084000000000002</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.899733</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0.90097499999999997</v>
       </c>
-      <c r="E3">
-        <v>1.2696300000000001E-2</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H5" si="0">AVERAGE(E3:G3)</f>
-        <v>1.2696300000000001E-2</v>
+      <c r="E4">
+        <v>8.0082999999999994E-3</v>
+      </c>
+      <c r="F4">
+        <v>8.0639000000000006E-3</v>
+      </c>
+      <c r="G4">
+        <v>7.7196000000000001E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="0">AVERAGE(E4:G4)</f>
+        <v>7.9306000000000012E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>78</v>
-      </c>
-      <c r="D4">
-        <v>77</v>
-      </c>
-      <c r="E4">
-        <v>1.36732E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1.36732E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
       <c r="B5">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3.22292E-2</v>
+        <v>5.0026999999999997E-3</v>
+      </c>
+      <c r="F5">
+        <v>5.5038999999999999E-3</v>
+      </c>
+      <c r="G5">
+        <v>5.5014E-3</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>3.22292E-2</v>
+        <v>5.3360000000000005E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>4.6031900000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>4.6033900000000003E-2</v>
+      </c>
+      <c r="G6">
+        <v>4.4529899999999997E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4.5531899999999993E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1.1601480000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0.98</v>
+      </c>
+      <c r="C13">
+        <v>0.98</v>
+      </c>
+      <c r="D13">
+        <v>0.98</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.96</v>
+      </c>
+      <c r="G13">
+        <v>0.96</v>
+      </c>
+      <c r="H13">
+        <v>0.98</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="J13">
+        <v>0.98</v>
+      </c>
+      <c r="K13">
+        <v>0.98</v>
+      </c>
+      <c r="L13">
+        <v>1.80127E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>1.6013099999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>3.3003299999999999E-2</v>
-      </c>
-      <c r="F16">
-        <v>3.1003099999999999E-2</v>
-      </c>
-      <c r="G16">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="H16">
-        <f>AVERAGE(E16:G16)</f>
-        <v>3.2335466666666667E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>0.83084000000000002</v>
-      </c>
-      <c r="C17">
-        <v>0.899733</v>
-      </c>
-      <c r="D17">
-        <v>0.90097499999999997</v>
-      </c>
-      <c r="E17">
-        <v>8.0008000000000006E-3</v>
-      </c>
-      <c r="F17">
-        <v>7.0007000000000003E-3</v>
-      </c>
-      <c r="G17">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H17:H19" si="1">AVERAGE(E17:G17)</f>
-        <v>7.3338333333333337E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>76</v>
-      </c>
-      <c r="C18">
-        <v>78</v>
-      </c>
-      <c r="D18">
-        <v>77</v>
-      </c>
-      <c r="E18">
-        <v>9.0008999999999992E-3</v>
-      </c>
-      <c r="F18">
-        <v>9.0008999999999992E-3</v>
-      </c>
-      <c r="G18">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>8.6672666666666662E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>50</v>
-      </c>
-      <c r="C19">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>64</v>
-      </c>
-      <c r="E19">
-        <v>4.0003999999999998E-2</v>
-      </c>
-      <c r="F19">
-        <v>3.9003900000000001E-2</v>
-      </c>
-      <c r="G19">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>3.9335966666666666E-2</v>
+      <c r="B15">
+        <v>59</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>84</v>
+      </c>
+      <c r="E15">
+        <v>109</v>
+      </c>
+      <c r="F15">
+        <v>69</v>
+      </c>
+      <c r="G15">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>59</v>
+      </c>
+      <c r="I15" s="3">
+        <v>98</v>
+      </c>
+      <c r="J15">
+        <v>85</v>
+      </c>
+      <c r="K15">
+        <v>84</v>
+      </c>
+      <c r="L15">
+        <v>2.4017899999999998E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A14:C14"/>
+  <mergeCells count="2">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
